--- a/data/2024/schools.2024.xlsx
+++ b/data/2024/schools.2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A0E86-9E98-4B0A-B831-6875CAC34020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA60FF8-79AB-477E-84FE-AD43DDB35F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,7 +1294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1419,57 +1419,57 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>51</v>
+    <row r="2" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>21017</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>560</v>
+        <v>184</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>545</v>
+      </c>
+      <c r="L2" s="1">
+        <v>561</v>
+      </c>
+      <c r="M2" s="8">
+        <v>725</v>
       </c>
       <c r="N2" s="7">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="O2" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>263</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>55</v>
+        <v>200</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
       </c>
       <c r="R2" s="7">
         <v>0</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>189</v>
@@ -1522,22 +1522,22 @@
         <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3597</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
+      <c r="I3" s="1">
+        <v>617</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -1546,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="N3" s="7">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="O3" s="7">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="P3" s="7">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="R3" s="7">
         <v>0</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
@@ -1611,22 +1611,22 @@
         <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="13">
-        <v>0</v>
+        <v>6898</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
+      <c r="I4" s="1">
+        <v>600</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1634,32 +1634,32 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="7">
-        <v>495</v>
-      </c>
-      <c r="N4" s="7">
-        <v>462</v>
+      <c r="M4" s="8">
+        <v>570</v>
+      </c>
+      <c r="N4" s="8">
+        <v>489</v>
       </c>
       <c r="O4" s="7">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R4" s="7">
         <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>189</v>
@@ -1700,22 +1700,22 @@
         <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
+        <v>11880</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
+      <c r="I5" s="1">
+        <v>565</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1724,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="N5" s="7">
-        <v>508</v>
+        <v>357</v>
       </c>
       <c r="O5" s="7">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <v>0</v>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
@@ -1789,22 +1789,22 @@
         <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>11630</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="I6" s="1">
+        <v>586</v>
+      </c>
+      <c r="J6" s="2">
+        <v>573</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1813,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="M6" s="7">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="N6" s="7">
-        <v>526</v>
+        <v>423</v>
       </c>
       <c r="O6" s="7">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <v>0</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
@@ -1878,22 +1878,22 @@
         <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F7" s="13">
-        <v>0</v>
+        <v>11630</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
+      <c r="I7" s="1">
+        <v>567</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1901,17 +1901,17 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="7">
-        <v>495</v>
-      </c>
-      <c r="N7" s="7">
-        <v>462</v>
+      <c r="M7" s="8">
+        <v>300</v>
+      </c>
+      <c r="N7" s="8">
+        <v>242</v>
       </c>
       <c r="O7" s="7">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P7" s="7">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <v>0</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
@@ -1970,19 +1970,19 @@
         <v>184</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
+        <v>5339</v>
+      </c>
+      <c r="G8" s="1">
+        <v>603</v>
+      </c>
+      <c r="H8" s="17">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="N8" s="8">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="O8" s="7">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
         <v>0</v>
@@ -2042,15 +2042,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>180</v>
@@ -2058,85 +2058,85 @@
       <c r="E9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>602</v>
+      </c>
+      <c r="L9" s="1">
+        <v>612</v>
+      </c>
+      <c r="M9" s="7">
+        <v>560</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>25</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
         <v>420</v>
-      </c>
-      <c r="N9" s="8">
-        <v>348</v>
-      </c>
-      <c r="O9" s="7">
-        <v>72</v>
-      </c>
-      <c r="P9" s="7">
-        <v>174</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>30</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>189</v>
@@ -2145,22 +2145,22 @@
         <v>180</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="F10" s="13">
+        <v>4836</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="H10" s="17">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
+      <c r="I10" s="2">
+        <v>611</v>
+      </c>
+      <c r="J10" s="2">
+        <v>603</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>473</v>
+        <v>220</v>
       </c>
       <c r="O10" s="7">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" s="7">
         <v>0</v>
@@ -2220,69 +2220,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>2603</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>470</v>
-      </c>
-      <c r="N11" s="8">
-        <v>373</v>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>621</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>270</v>
+      </c>
+      <c r="N11" s="7">
+        <v>254</v>
       </c>
       <c r="O11" s="7">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <v>0</v>
       </c>
       <c r="S11" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T11" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" s="7">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>189</v>
@@ -2323,22 +2323,22 @@
         <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="H12" s="17">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>629</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="8">
-        <v>420</v>
-      </c>
-      <c r="N12" s="8">
-        <v>395</v>
+      <c r="M12" s="7">
+        <v>540</v>
+      </c>
+      <c r="N12" s="7">
+        <v>508</v>
       </c>
       <c r="O12" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="R12" s="7">
         <v>0</v>
@@ -2398,12 +2398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>189</v>
@@ -2412,22 +2412,22 @@
         <v>180</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="H13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2436,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="N13" s="7">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="O13" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R13" s="7">
         <v>0</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>189</v>
@@ -2504,19 +2504,19 @@
         <v>184</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>9442</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="H14" s="17">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2525,16 +2525,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <v>200</v>
+        <v>486</v>
       </c>
       <c r="N14" s="8">
-        <v>141</v>
+        <v>408</v>
       </c>
       <c r="O14" s="7">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -2576,69 +2576,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="12">
+        <v>12828</v>
+      </c>
+      <c r="G15" s="1">
+        <v>550</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>560</v>
+      </c>
+      <c r="J15" s="1">
+        <v>555</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>456</v>
+      </c>
+      <c r="N15" s="7">
+        <v>380</v>
+      </c>
+      <c r="O15" s="7">
+        <v>76</v>
+      </c>
+      <c r="P15" s="7">
         <v>190</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>270</v>
-      </c>
-      <c r="N15" s="7">
-        <v>254</v>
-      </c>
-      <c r="O15" s="7">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7">
-        <v>127</v>
-      </c>
       <c r="Q15" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R15" s="7">
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="U15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="7">
         <v>0</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>189</v>
@@ -2682,19 +2682,19 @@
         <v>184</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>8323</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="J16" s="2">
+        <v>582</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2702,20 +2702,20 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="8">
-        <v>710</v>
-      </c>
-      <c r="N16" s="8">
-        <v>620</v>
+      <c r="M16" s="7">
+        <v>670</v>
+      </c>
+      <c r="N16" s="7">
+        <v>557</v>
       </c>
       <c r="O16" s="7">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R16" s="7">
         <v>0</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>189</v>
@@ -2768,22 +2768,22 @@
         <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="13">
-        <v>0</v>
+        <v>2197</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="H17" s="17">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2791,32 +2791,32 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="8">
-        <v>520</v>
-      </c>
-      <c r="N17" s="8">
-        <v>441</v>
+      <c r="M17" s="7">
+        <v>560</v>
+      </c>
+      <c r="N17" s="7">
+        <v>526</v>
       </c>
       <c r="O17" s="7">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="P17" s="7">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R17" s="7">
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17" s="7">
         <v>0</v>
@@ -2843,12 +2843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>189</v>
@@ -2860,19 +2860,19 @@
         <v>184</v>
       </c>
       <c r="F18" s="13">
-        <v>0</v>
+        <v>9048</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2881,17 +2881,17 @@
         <v>0</v>
       </c>
       <c r="M18" s="8">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N18" s="8">
+        <v>280</v>
+      </c>
+      <c r="O18" s="7">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7">
         <v>188</v>
       </c>
-      <c r="O18" s="7">
-        <v>12</v>
-      </c>
-      <c r="P18" s="7">
-        <v>94</v>
-      </c>
       <c r="Q18" s="7">
         <v>0</v>
       </c>
@@ -2932,15 +2932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>180</v>
@@ -2948,41 +2948,41 @@
       <c r="E19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="F19" s="13">
+        <v>9167</v>
+      </c>
+      <c r="G19" s="1">
+        <v>577</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>584</v>
+      </c>
+      <c r="J19" s="1">
+        <v>581</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="O19" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -3018,15 +3018,15 @@
         <v>0</v>
       </c>
       <c r="AC19" s="7">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>189</v>
@@ -3035,22 +3035,22 @@
         <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="F20" s="12">
+        <v>6466</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="7">
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="N20" s="7">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="O20" s="7">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R20" s="7">
         <v>0</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>189</v>
@@ -3124,40 +3124,34 @@
         <v>180</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F21" s="14">
+        <v>13488</v>
+      </c>
+      <c r="G21" s="3">
+        <v>545</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="3">
+        <v>551</v>
+      </c>
+      <c r="J21" s="3">
+        <v>545</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="7">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O21" s="7">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="7">
         <v>30</v>
@@ -3216,19 +3210,19 @@
         <v>184</v>
       </c>
       <c r="F22" s="13">
-        <v>0</v>
+        <v>7331</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3288,12 +3282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>189</v>
@@ -3305,19 +3299,19 @@
         <v>184</v>
       </c>
       <c r="F23" s="13">
-        <v>0</v>
+        <v>9591</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3326,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N23" s="8">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="O23" s="7">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R23" s="7">
         <v>0</v>
@@ -3379,10 +3373,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>189</v>
@@ -3394,19 +3388,19 @@
         <v>184</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>10231</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="H24" s="17">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3415,19 +3409,19 @@
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="N24" s="8">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="O24" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="P24" s="7">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R24" s="7">
         <v>0</v>
@@ -3468,10 +3462,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>189</v>
@@ -3483,19 +3477,19 @@
         <v>184</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H25" s="17">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3504,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="N25" s="8">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="O25" s="7">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="P25" s="7">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R25" s="7">
         <v>0</v>
@@ -3557,10 +3551,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>189</v>
@@ -3572,19 +3566,19 @@
         <v>184</v>
       </c>
       <c r="F26" s="13">
-        <v>0</v>
+        <v>4836</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3593,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N26" s="8">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="O26" s="7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P26" s="7">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
@@ -3646,49 +3640,49 @@
     </row>
     <row r="27" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>550</v>
+      </c>
+      <c r="L27" s="1">
+        <v>572</v>
       </c>
       <c r="M27" s="7">
-        <v>70</v>
+        <v>920</v>
       </c>
       <c r="N27" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P27" s="7">
         <v>0</v>
@@ -3700,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="7">
         <v>0</v>
@@ -3730,54 +3724,54 @@
         <v>0</v>
       </c>
       <c r="AC27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>545</v>
+      </c>
+      <c r="L28" s="1">
+        <v>578</v>
       </c>
       <c r="M28" s="7">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="N28" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P28" s="7">
         <v>0</v>
@@ -3819,15 +3813,15 @@
         <v>0</v>
       </c>
       <c r="AC28" s="7">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>189</v>
@@ -3839,40 +3833,40 @@
         <v>184</v>
       </c>
       <c r="F29" s="13">
-        <v>0</v>
+        <v>4199</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+        <v>608</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="N29" s="8">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="O29" s="7">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="P29" s="7">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R29" s="7">
         <v>0</v>
@@ -3911,57 +3905,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>260</v>
+        <v>184</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>545</v>
+      </c>
+      <c r="L30" s="1">
+        <v>555</v>
+      </c>
+      <c r="M30" s="8">
+        <v>900</v>
       </c>
       <c r="N30" s="7">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P30" s="7">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R30" s="7">
         <v>0</v>
@@ -4002,10 +3996,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>189</v>
@@ -4014,22 +4008,22 @@
         <v>180</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="13">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="H31" s="17">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -4037,20 +4031,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="8">
-        <v>500</v>
-      </c>
-      <c r="N31" s="8">
-        <v>401</v>
+      <c r="M31" s="7">
+        <v>560</v>
+      </c>
+      <c r="N31" s="7">
+        <v>526</v>
       </c>
       <c r="O31" s="7">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="Q31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R31" s="7">
         <v>0</v>
@@ -4091,10 +4085,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>189</v>
@@ -4106,19 +4100,19 @@
         <v>184</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>5521</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
+        <v>607</v>
+      </c>
+      <c r="J32" s="1">
+        <v>602</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -4126,20 +4120,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="7">
-        <v>670</v>
-      </c>
-      <c r="N32" s="7">
-        <v>557</v>
+      <c r="M32" s="8">
+        <v>710</v>
+      </c>
+      <c r="N32" s="8">
+        <v>620</v>
       </c>
       <c r="O32" s="7">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Q32" s="7">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R32" s="7">
         <v>0</v>
@@ -4180,10 +4174,10 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>189</v>
@@ -4195,19 +4189,19 @@
         <v>184</v>
       </c>
       <c r="F33" s="13">
-        <v>0</v>
+        <v>10512</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
       </c>
-      <c r="I33" s="2">
-        <v>0</v>
+      <c r="I33" s="1">
+        <v>574</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -4215,20 +4209,20 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="7">
-        <v>390</v>
-      </c>
-      <c r="N33" s="7">
-        <v>320</v>
+      <c r="M33" s="8">
+        <v>500</v>
+      </c>
+      <c r="N33" s="8">
+        <v>421</v>
       </c>
       <c r="O33" s="7">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="P33" s="7">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="Q33" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R33" s="7">
         <v>0</v>
@@ -4269,10 +4263,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>189</v>
@@ -4284,19 +4278,19 @@
         <v>184</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>12703</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="H34" s="17">
         <v>0</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
+      <c r="I34" s="2">
+        <v>561</v>
+      </c>
+      <c r="J34" s="1">
+        <v>556</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -4304,20 +4298,20 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="7">
-        <v>495</v>
-      </c>
-      <c r="N34" s="7">
-        <v>423</v>
+      <c r="M34" s="8">
+        <v>910</v>
+      </c>
+      <c r="N34" s="8">
+        <v>658</v>
       </c>
       <c r="O34" s="7">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="Q34" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R34" s="7">
         <v>0</v>
@@ -4373,19 +4367,19 @@
         <v>184</v>
       </c>
       <c r="F35" s="12">
-        <v>0</v>
+        <v>10106</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="H35" s="17">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -4447,10 +4441,10 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>189</v>
@@ -4462,19 +4456,19 @@
         <v>184</v>
       </c>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>6898</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -4483,19 +4477,19 @@
         <v>0</v>
       </c>
       <c r="M36" s="8">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="N36" s="8">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="O36" s="7">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="P36" s="7">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" s="7">
         <v>0</v>
@@ -4534,12 +4528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>189</v>
@@ -4548,22 +4542,22 @@
         <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H37" s="17">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -4571,21 +4565,21 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="8">
+        <v>520</v>
+      </c>
+      <c r="N37" s="8">
+        <v>441</v>
+      </c>
+      <c r="O37" s="7">
+        <v>79</v>
+      </c>
+      <c r="P37" s="7">
+        <v>221</v>
+      </c>
+      <c r="Q37" s="7">
         <v>50</v>
       </c>
-      <c r="N37" s="7">
-        <v>25</v>
-      </c>
-      <c r="O37" s="7">
-        <v>25</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
       <c r="R37" s="7">
         <v>0</v>
       </c>
@@ -4623,12 +4617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>189</v>
@@ -4637,22 +4631,22 @@
         <v>180</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>9844</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="H38" s="17">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -4660,20 +4654,20 @@
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="8">
+        <v>490</v>
+      </c>
+      <c r="N38" s="8">
+        <v>439</v>
+      </c>
+      <c r="O38" s="7">
+        <v>51</v>
+      </c>
+      <c r="P38" s="7">
+        <v>220</v>
+      </c>
+      <c r="Q38" s="7">
         <v>50</v>
-      </c>
-      <c r="N38" s="7">
-        <v>25</v>
-      </c>
-      <c r="O38" s="7">
-        <v>25</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
       </c>
       <c r="R38" s="7">
         <v>0</v>
@@ -4714,10 +4708,10 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>189</v>
@@ -4729,19 +4723,19 @@
         <v>184</v>
       </c>
       <c r="F39" s="13">
-        <v>0</v>
+        <v>10652</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H39" s="17">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -4750,16 +4744,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N39" s="8">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="O39" s="7">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="P39" s="7">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="7">
         <v>0</v>
@@ -4801,12 +4795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>189</v>
@@ -4818,19 +4812,19 @@
         <v>184</v>
       </c>
       <c r="F40" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H40" s="17">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -4842,13 +4836,13 @@
         <v>400</v>
       </c>
       <c r="N40" s="8">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="O40" s="7">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="P40" s="7">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="7">
         <v>0</v>
@@ -4892,10 +4886,10 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>189</v>
@@ -4907,19 +4901,19 @@
         <v>184</v>
       </c>
       <c r="F41" s="13">
-        <v>0</v>
+        <v>6898</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="H41" s="17">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -4928,19 +4922,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="N41" s="8">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="O41" s="7">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="P41" s="7">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="Q41" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R41" s="7">
         <v>0</v>
@@ -4981,10 +4975,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>189</v>
@@ -4996,19 +4990,19 @@
         <v>184</v>
       </c>
       <c r="F42" s="13">
-        <v>0</v>
+        <v>12569</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="H42" s="17">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -5017,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N42" s="8">
-        <v>421</v>
+        <v>251</v>
       </c>
       <c r="O42" s="7">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P42" s="7">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5068,15 +5062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>180</v>
@@ -5084,38 +5078,38 @@
       <c r="E43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="F43" s="13">
+        <v>2467</v>
+      </c>
+      <c r="G43" s="1">
+        <v>622</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>624</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="7">
-        <v>920</v>
+        <v>495</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="O43" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P43" s="7">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="7">
         <v>0</v>
@@ -5124,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T43" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V43" s="7">
         <v>0</v>
@@ -5154,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="7">
-        <v>820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -5189,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="M44" s="8">
         <v>400</v>
@@ -5248,10 +5242,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>189</v>
@@ -5263,19 +5257,19 @@
         <v>184</v>
       </c>
       <c r="F45" s="13">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="H45" s="17">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -5284,19 +5278,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="8">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="N45" s="8">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="O45" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P45" s="7">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="Q45" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R45" s="7">
         <v>0</v>
@@ -5335,12 +5329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>189</v>
@@ -5349,22 +5343,22 @@
         <v>180</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F46" s="13">
-        <v>0</v>
+        <v>12012</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="H46" s="17">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -5372,17 +5366,17 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="8">
-        <v>400</v>
-      </c>
-      <c r="N46" s="8">
-        <v>307</v>
+      <c r="M46" s="7">
+        <v>50</v>
+      </c>
+      <c r="N46" s="7">
+        <v>25</v>
       </c>
       <c r="O46" s="7">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="P46" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="7">
         <v>0</v>
@@ -5426,10 +5420,10 @@
     </row>
     <row r="47" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>189</v>
@@ -5438,22 +5432,22 @@
         <v>180</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="F47" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -5462,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="M47" s="7">
+        <v>100</v>
+      </c>
+      <c r="N47" s="7">
         <v>50</v>
       </c>
-      <c r="N47" s="7">
-        <v>25</v>
-      </c>
       <c r="O47" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P47" s="7">
         <v>0</v>
@@ -5515,49 +5509,49 @@
     </row>
     <row r="48" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F48" s="14">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
+        <v>186</v>
+      </c>
+      <c r="F48" s="13">
+        <v>13488</v>
+      </c>
+      <c r="G48" s="1">
+        <v>545</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>561</v>
+      </c>
+      <c r="J48" s="1">
+        <v>545</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O48" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P48" s="7">
         <v>0</v>
@@ -5602,12 +5596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>189</v>
@@ -5616,29 +5610,43 @@
         <v>180</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F49" s="13">
+        <v>13488</v>
+      </c>
+      <c r="G49" s="1">
+        <v>545</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>560</v>
+      </c>
+      <c r="J49" s="1">
+        <v>545</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
       <c r="M49" s="7">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="N49" s="7">
-        <v>392</v>
+        <v>25</v>
       </c>
       <c r="O49" s="7">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="P49" s="7">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R49" s="7">
         <v>0</v>
@@ -5679,10 +5687,10 @@
     </row>
     <row r="50" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>189</v>
@@ -5694,19 +5702,19 @@
         <v>186</v>
       </c>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H50" s="17">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -5715,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="M50" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N50" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O50" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P50" s="7">
         <v>0</v>
@@ -5768,10 +5776,10 @@
     </row>
     <row r="51" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>189</v>
@@ -5783,19 +5791,19 @@
         <v>186</v>
       </c>
       <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17">
+        <v>13488</v>
+      </c>
+      <c r="G51" s="2">
+        <v>545</v>
+      </c>
+      <c r="H51" s="18">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -5857,10 +5865,10 @@
     </row>
     <row r="52" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>189</v>
@@ -5872,19 +5880,19 @@
         <v>186</v>
       </c>
       <c r="F52" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17">
+        <v>545</v>
+      </c>
+      <c r="H52" s="18">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -5893,13 +5901,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N52" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O52" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -5944,12 +5952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>189</v>
@@ -5958,22 +5966,22 @@
         <v>180</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F53" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>548</v>
+      </c>
+      <c r="J53" s="1">
+        <v>545</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -5982,16 +5990,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="7">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N53" s="7">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="O53" s="7">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="P53" s="7">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="7">
         <v>0</v>
@@ -6033,12 +6041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>189</v>
@@ -6047,22 +6055,22 @@
         <v>180</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F54" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>552</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -6070,20 +6078,20 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="8">
-        <v>910</v>
-      </c>
-      <c r="N54" s="8">
-        <v>658</v>
+      <c r="M54" s="7">
+        <v>50</v>
+      </c>
+      <c r="N54" s="7">
+        <v>25</v>
       </c>
       <c r="O54" s="7">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="P54" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R54" s="7">
         <v>0</v>
@@ -6122,12 +6130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>189</v>
@@ -6136,22 +6144,22 @@
         <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F55" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17">
+        <v>545</v>
+      </c>
+      <c r="H55" s="18">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -6159,17 +6167,17 @@
       <c r="L55" s="3">
         <v>0</v>
       </c>
-      <c r="M55" s="8">
-        <v>300</v>
-      </c>
-      <c r="N55" s="8">
-        <v>242</v>
+      <c r="M55" s="7">
+        <v>100</v>
+      </c>
+      <c r="N55" s="7">
+        <v>50</v>
       </c>
       <c r="O55" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P55" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="7">
         <v>0</v>
@@ -6213,10 +6221,10 @@
     </row>
     <row r="56" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>189</v>
@@ -6228,19 +6236,19 @@
         <v>186</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17">
+        <v>545</v>
+      </c>
+      <c r="H56" s="18">
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -6249,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="M56" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N56" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O56" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -6302,10 +6310,10 @@
     </row>
     <row r="57" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>189</v>
@@ -6314,22 +6322,22 @@
         <v>180</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F57" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17">
+        <v>545</v>
+      </c>
+      <c r="H57" s="18">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -6337,17 +6345,17 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="8">
-        <v>330</v>
-      </c>
-      <c r="N57" s="8">
-        <v>280</v>
+      <c r="M57" s="7">
+        <v>50</v>
+      </c>
+      <c r="N57" s="7">
+        <v>25</v>
       </c>
       <c r="O57" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P57" s="7">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="7">
         <v>0</v>
@@ -6389,12 +6397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>189</v>
@@ -6403,7 +6411,7 @@
         <v>180</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F58" s="13">
         <v>0</v>
@@ -6411,7 +6419,7 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="18">
         <v>0</v>
       </c>
       <c r="I58" s="1">
@@ -6426,17 +6434,17 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="8">
-        <v>400</v>
-      </c>
-      <c r="N58" s="8">
-        <v>251</v>
+      <c r="M58" s="7">
+        <v>50</v>
+      </c>
+      <c r="N58" s="7">
+        <v>25</v>
       </c>
       <c r="O58" s="7">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="P58" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="7">
         <v>0</v>
@@ -6478,12 +6486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>189</v>
@@ -6492,22 +6500,22 @@
         <v>180</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F59" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17">
+        <v>545</v>
+      </c>
+      <c r="H59" s="18">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -6515,20 +6523,20 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="8">
-        <v>720</v>
-      </c>
-      <c r="N59" s="8">
-        <v>576</v>
+      <c r="M59" s="7">
+        <v>50</v>
+      </c>
+      <c r="N59" s="7">
+        <v>25</v>
       </c>
       <c r="O59" s="7">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="P59" s="7">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R59" s="7">
         <v>0</v>
@@ -6567,12 +6575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>189</v>
@@ -6581,22 +6589,22 @@
         <v>180</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F60" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17">
+        <v>545</v>
+      </c>
+      <c r="H60" s="18">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -6604,17 +6612,17 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="8">
-        <v>400</v>
-      </c>
-      <c r="N60" s="8">
-        <v>282</v>
+      <c r="M60" s="7">
+        <v>50</v>
+      </c>
+      <c r="N60" s="7">
+        <v>25</v>
       </c>
       <c r="O60" s="7">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="P60" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="7">
         <v>0</v>
@@ -6658,10 +6666,10 @@
     </row>
     <row r="61" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>189</v>
@@ -6673,19 +6681,19 @@
         <v>186</v>
       </c>
       <c r="F61" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H61" s="18">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>557</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -6694,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O61" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -6747,10 +6755,10 @@
     </row>
     <row r="62" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>189</v>
@@ -6762,19 +6770,19 @@
         <v>186</v>
       </c>
       <c r="F62" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="17">
+        <v>545</v>
+      </c>
+      <c r="H62" s="18">
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -6834,12 +6842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>189</v>
@@ -6848,22 +6856,22 @@
         <v>180</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="12">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="F63" s="13">
+        <v>13488</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
+        <v>545</v>
+      </c>
+      <c r="H63" s="18">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -6872,19 +6880,19 @@
         <v>0</v>
       </c>
       <c r="M63" s="7">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="N63" s="7">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="O63" s="7">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P63" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R63" s="7">
         <v>0</v>
@@ -6925,10 +6933,10 @@
     </row>
     <row r="64" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>189</v>
@@ -6940,19 +6948,19 @@
         <v>186</v>
       </c>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="17">
+        <v>545</v>
+      </c>
+      <c r="H64" s="18">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -7014,13 +7022,13 @@
     </row>
     <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>180</v>
@@ -7028,32 +7036,32 @@
       <c r="E65" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F65" s="14">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="19">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
+      <c r="F65" s="13">
+        <v>4662</v>
+      </c>
+      <c r="G65" s="1">
+        <v>607</v>
+      </c>
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>614</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
         <v>0</v>
       </c>
       <c r="M65" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O65" s="7">
         <v>0</v>
@@ -7103,10 +7111,10 @@
     </row>
     <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>189</v>
@@ -7118,19 +7126,19 @@
         <v>186</v>
       </c>
       <c r="F66" s="13">
-        <v>0</v>
+        <v>13229</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="H66" s="17">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -7139,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="M66" s="7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N66" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O66" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P66" s="7">
         <v>0</v>
@@ -7190,12 +7198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>189</v>
@@ -7204,22 +7212,22 @@
         <v>180</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F67" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H67" s="17">
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -7228,16 +7236,16 @@
         <v>0</v>
       </c>
       <c r="M67" s="7">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N67" s="7">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="O67" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="P67" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="7">
         <v>0</v>
@@ -7281,10 +7289,10 @@
     </row>
     <row r="68" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>189</v>
@@ -7296,19 +7304,19 @@
         <v>186</v>
       </c>
       <c r="F68" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H68" s="17">
         <v>0</v>
       </c>
-      <c r="I68" s="2">
-        <v>0</v>
+      <c r="I68" s="1">
+        <v>553</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -7317,13 +7325,13 @@
         <v>0</v>
       </c>
       <c r="M68" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N68" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O68" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P68" s="7">
         <v>0</v>
@@ -7368,54 +7376,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="17">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
-        <v>486</v>
-      </c>
-      <c r="N69" s="8">
-        <v>408</v>
+        <v>215</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="19">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>545</v>
+      </c>
+      <c r="L69" s="2">
+        <v>566</v>
+      </c>
+      <c r="M69" s="7">
+        <v>50</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
       </c>
       <c r="O69" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P69" s="7">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="7">
         <v>0</v>
@@ -7457,51 +7465,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="14">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="19">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
+        <v>186</v>
+      </c>
+      <c r="F70" s="12">
+        <v>13488</v>
+      </c>
+      <c r="G70" s="1">
+        <v>545</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>567</v>
+      </c>
+      <c r="J70" s="1">
+        <v>545</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="7">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O70" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P70" s="7">
         <v>0</v>
@@ -7543,57 +7551,57 @@
         <v>0</v>
       </c>
       <c r="AC70" s="7">
-        <v>952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F71" s="14">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="19">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
-        <v>900</v>
+        <v>186</v>
+      </c>
+      <c r="F71" s="12">
+        <v>13488</v>
+      </c>
+      <c r="G71" s="1">
+        <v>545</v>
+      </c>
+      <c r="H71" s="18">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>548</v>
+      </c>
+      <c r="J71" s="1">
+        <v>545</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>150</v>
       </c>
       <c r="N71" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O71" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P71" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="7">
         <v>0</v>
@@ -7637,10 +7645,10 @@
     </row>
     <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>189</v>
@@ -7652,19 +7660,19 @@
         <v>186</v>
       </c>
       <c r="F72" s="13">
-        <v>0</v>
+        <v>10106</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="17">
+        <v>570</v>
+      </c>
+      <c r="H72" s="18">
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -7673,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="M72" s="7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N72" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O72" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P72" s="7">
         <v>0</v>
@@ -7726,13 +7734,13 @@
     </row>
     <row r="73" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>180</v>
@@ -7740,35 +7748,35 @@
       <c r="E73" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="12">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2">
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
         <v>0</v>
       </c>
       <c r="H73" s="18">
         <v>0</v>
       </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0</v>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>545</v>
+      </c>
+      <c r="L73" s="1">
+        <v>553</v>
       </c>
       <c r="M73" s="7">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N73" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O73" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P73" s="7">
         <v>0</v>
@@ -7815,13 +7823,13 @@
     </row>
     <row r="74" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>180</v>
@@ -7829,35 +7837,35 @@
       <c r="E74" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="13">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="18">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3">
-        <v>0</v>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>545</v>
+      </c>
+      <c r="L74" s="1">
+        <v>558</v>
       </c>
       <c r="M74" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O74" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P74" s="7">
         <v>0</v>
@@ -7904,13 +7912,13 @@
     </row>
     <row r="75" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>180</v>
@@ -7918,35 +7926,35 @@
       <c r="E75" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F75" s="13">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="18">
         <v>0</v>
       </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3">
-        <v>0</v>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>545</v>
+      </c>
+      <c r="L75" s="1">
+        <v>586</v>
       </c>
       <c r="M75" s="7">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="N75" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O75" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P75" s="7">
         <v>0</v>
@@ -7993,10 +8001,10 @@
     </row>
     <row r="76" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>189</v>
@@ -8008,19 +8016,19 @@
         <v>186</v>
       </c>
       <c r="F76" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="18">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>567</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -8029,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="M76" s="7">
+        <v>100</v>
+      </c>
+      <c r="N76" s="7">
         <v>50</v>
       </c>
-      <c r="N76" s="7">
-        <v>25</v>
-      </c>
       <c r="O76" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P76" s="7">
         <v>0</v>
@@ -8082,10 +8090,10 @@
     </row>
     <row r="77" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>189</v>
@@ -8097,19 +8105,19 @@
         <v>186</v>
       </c>
       <c r="F77" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H77" s="18">
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
@@ -8118,13 +8126,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N77" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O77" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="P77" s="7">
         <v>0</v>
@@ -8171,10 +8179,10 @@
     </row>
     <row r="78" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>189</v>
@@ -8186,19 +8194,19 @@
         <v>186</v>
       </c>
       <c r="F78" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H78" s="18">
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
@@ -8207,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="M78" s="7">
+        <v>100</v>
+      </c>
+      <c r="N78" s="7">
         <v>50</v>
       </c>
-      <c r="N78" s="7">
-        <v>25</v>
-      </c>
       <c r="O78" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P78" s="7">
         <v>0</v>
@@ -8260,13 +8268,13 @@
     </row>
     <row r="79" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>180</v>
@@ -8290,19 +8298,19 @@
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="L79" s="3">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="M79" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N79" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O79" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P79" s="7">
         <v>0</v>
@@ -8349,13 +8357,13 @@
     </row>
     <row r="80" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>180</v>
@@ -8363,35 +8371,35 @@
       <c r="E80" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="13">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
         <v>0</v>
       </c>
       <c r="H80" s="18">
         <v>0</v>
       </c>
-      <c r="I80" s="1">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1">
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>0</v>
       </c>
       <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="L80" s="1">
+        <v>581</v>
       </c>
       <c r="M80" s="7">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N80" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O80" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P80" s="7">
         <v>0</v>
@@ -8438,13 +8446,13 @@
     </row>
     <row r="81" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>180</v>
@@ -8452,35 +8460,35 @@
       <c r="E81" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F81" s="13">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="18">
         <v>0</v>
       </c>
-      <c r="I81" s="1">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="L81" s="1">
+        <v>553</v>
       </c>
       <c r="M81" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N81" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O81" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P81" s="7">
         <v>0</v>
@@ -8527,10 +8535,10 @@
     </row>
     <row r="82" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>189</v>
@@ -8542,19 +8550,19 @@
         <v>186</v>
       </c>
       <c r="F82" s="13">
-        <v>0</v>
+        <v>10966</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="18">
+        <v>564</v>
+      </c>
+      <c r="H82" s="17">
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -8563,13 +8571,13 @@
         <v>0</v>
       </c>
       <c r="M82" s="7">
+        <v>100</v>
+      </c>
+      <c r="N82" s="7">
         <v>50</v>
       </c>
-      <c r="N82" s="7">
-        <v>25</v>
-      </c>
       <c r="O82" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P82" s="7">
         <v>0</v>
@@ -8616,10 +8624,10 @@
     </row>
     <row r="83" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>189</v>
@@ -8631,19 +8639,19 @@
         <v>186</v>
       </c>
       <c r="F83" s="13">
-        <v>0</v>
+        <v>11363</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
-      </c>
-      <c r="H83" s="18">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <v>0</v>
+        <v>561</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>575</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -8705,10 +8713,10 @@
     </row>
     <row r="84" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>189</v>
@@ -8720,19 +8728,19 @@
         <v>186</v>
       </c>
       <c r="F84" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="18">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>550</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -8794,10 +8802,10 @@
     </row>
     <row r="85" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>189</v>
@@ -8809,19 +8817,19 @@
         <v>186</v>
       </c>
       <c r="F85" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H85" s="18">
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="J85" s="1">
+        <v>545</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -8883,10 +8891,10 @@
     </row>
     <row r="86" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>189</v>
@@ -8898,19 +8906,19 @@
         <v>186</v>
       </c>
       <c r="F86" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H86" s="18">
         <v>0</v>
       </c>
-      <c r="I86" s="1">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2">
-        <v>0</v>
+      <c r="I86" s="2">
+        <v>545</v>
+      </c>
+      <c r="J86" s="1">
+        <v>545</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -8972,10 +8980,10 @@
     </row>
     <row r="87" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>189</v>
@@ -8987,19 +8995,19 @@
         <v>186</v>
       </c>
       <c r="F87" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="H87" s="18">
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="J87" s="1">
+        <v>549</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -9011,10 +9019,10 @@
         <v>50</v>
       </c>
       <c r="N87" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O87" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P87" s="7">
         <v>0</v>
@@ -9059,12 +9067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>189</v>
@@ -9073,22 +9081,22 @@
         <v>180</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F88" s="13">
-        <v>0</v>
+        <v>8201</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="18">
+        <v>584</v>
+      </c>
+      <c r="H88" s="17">
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -9096,20 +9104,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="7">
-        <v>150</v>
-      </c>
-      <c r="N88" s="7">
-        <v>75</v>
+      <c r="M88" s="8">
+        <v>400</v>
+      </c>
+      <c r="N88" s="8">
+        <v>354</v>
       </c>
       <c r="O88" s="7">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P88" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="Q88" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R88" s="7">
         <v>0</v>
@@ -9148,12 +9156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>189</v>
@@ -9162,22 +9170,22 @@
         <v>180</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F89" s="13">
-        <v>0</v>
+        <v>10966</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="18">
+        <v>564</v>
+      </c>
+      <c r="H89" s="17">
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -9185,20 +9193,20 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="7">
-        <v>100</v>
-      </c>
-      <c r="N89" s="7">
-        <v>50</v>
+      <c r="M89" s="8">
+        <v>340</v>
+      </c>
+      <c r="N89" s="8">
+        <v>320</v>
       </c>
       <c r="O89" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P89" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q89" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R89" s="7">
         <v>0</v>
@@ -9237,57 +9245,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F90" s="14">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="18">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0</v>
-      </c>
-      <c r="M90" s="7">
-        <v>210</v>
-      </c>
-      <c r="N90" s="7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="F90" s="13">
+        <v>7592</v>
+      </c>
+      <c r="G90" s="1">
+        <v>588</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>601</v>
+      </c>
+      <c r="J90" s="1">
+        <v>549</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="8">
+        <v>420</v>
+      </c>
+      <c r="N90" s="8">
+        <v>326</v>
       </c>
       <c r="O90" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="P90" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="Q90" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R90" s="7">
         <v>0</v>
@@ -9326,69 +9334,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F91" s="14">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="18">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0</v>
-      </c>
-      <c r="L91" s="1">
+        <v>183</v>
+      </c>
+      <c r="F91" s="13">
+        <v>1562</v>
+      </c>
+      <c r="G91" s="1">
+        <v>629</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>631</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="7">
-        <v>144</v>
+        <v>495</v>
       </c>
       <c r="N91" s="7">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="O91" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P91" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="Q91" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R91" s="7">
         <v>0</v>
       </c>
       <c r="S91" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T91" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U91" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V91" s="7">
         <v>0</v>
@@ -9415,12 +9423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>189</v>
@@ -9429,22 +9437,22 @@
         <v>180</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F92" s="13">
-        <v>0</v>
+        <v>10231</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
-      </c>
-      <c r="H92" s="18">
+        <v>569</v>
+      </c>
+      <c r="H92" s="17">
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K92" s="3">
         <v>0</v>
@@ -9452,17 +9460,17 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="7">
-        <v>50</v>
-      </c>
-      <c r="N92" s="7">
-        <v>25</v>
+      <c r="M92" s="8">
+        <v>500</v>
+      </c>
+      <c r="N92" s="8">
+        <v>401</v>
       </c>
       <c r="O92" s="7">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="P92" s="7">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="Q92" s="7">
         <v>0</v>
@@ -9504,12 +9512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>189</v>
@@ -9518,22 +9526,22 @@
         <v>180</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F93" s="13">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="G93" s="2">
+        <v>619</v>
       </c>
       <c r="H93" s="18">
         <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K93" s="3">
         <v>0</v>
@@ -9541,20 +9549,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="7">
-        <v>100</v>
-      </c>
-      <c r="N93" s="7">
-        <v>50</v>
+      <c r="M93" s="8">
+        <v>370</v>
+      </c>
+      <c r="N93" s="8">
+        <v>301</v>
       </c>
       <c r="O93" s="7">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P93" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="Q93" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R93" s="7">
         <v>0</v>
@@ -9595,10 +9603,10 @@
     </row>
     <row r="94" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>191</v>
@@ -9607,31 +9615,31 @@
         <v>180</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F94" s="13">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
+        <v>184</v>
+      </c>
+      <c r="F94" s="14">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="18">
         <v>0</v>
       </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="7">
-        <v>100</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>545</v>
+      </c>
+      <c r="L94" s="1">
+        <v>560</v>
+      </c>
+      <c r="M94" s="8">
+        <v>750</v>
       </c>
       <c r="N94" s="7">
         <v>0</v>
@@ -9640,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q94" s="7">
         <v>0</v>
@@ -9682,57 +9690,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F95" s="14">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-      <c r="H95" s="18">
-        <v>0</v>
-      </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1">
-        <v>0</v>
-      </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
-      <c r="M95" s="7">
-        <v>180</v>
-      </c>
-      <c r="N95" s="7">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="F95" s="13">
+        <v>3310</v>
+      </c>
+      <c r="G95" s="1">
+        <v>616</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>618</v>
+      </c>
+      <c r="J95" s="1">
+        <v>615</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0</v>
+      </c>
+      <c r="M95" s="8">
+        <v>420</v>
+      </c>
+      <c r="N95" s="8">
+        <v>348</v>
       </c>
       <c r="O95" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="P95" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Q95" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R95" s="7">
         <v>0</v>
@@ -9771,54 +9779,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F96" s="14">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="F96" s="13">
+        <v>13488</v>
+      </c>
+      <c r="G96" s="1">
+        <v>545</v>
       </c>
       <c r="H96" s="18">
         <v>0</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="1">
-        <v>0</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="7">
+      <c r="I96" s="1">
+        <v>553</v>
+      </c>
+      <c r="J96" s="1">
+        <v>545</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
         <v>100</v>
       </c>
-      <c r="N96" s="7">
-        <v>0</v>
+      <c r="N96" s="8">
+        <v>50</v>
       </c>
       <c r="O96" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P96" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q96" s="7">
         <v>0</v>
@@ -9860,12 +9868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>189</v>
@@ -9874,22 +9882,22 @@
         <v>180</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F97" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="18">
+        <v>545</v>
+      </c>
+      <c r="H97" s="17">
         <v>0</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K97" s="3">
         <v>0</v>
@@ -9897,20 +9905,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="7">
-        <v>100</v>
-      </c>
-      <c r="N97" s="7">
-        <v>50</v>
+      <c r="M97" s="8">
+        <v>720</v>
+      </c>
+      <c r="N97" s="8">
+        <v>576</v>
       </c>
       <c r="O97" s="7">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="P97" s="7">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="Q97" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R97" s="7">
         <v>0</v>
@@ -9949,12 +9957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>189</v>
@@ -9963,22 +9971,22 @@
         <v>180</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F98" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="18">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>566</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="K98" s="3">
         <v>0</v>
@@ -9987,16 +9995,16 @@
         <v>0</v>
       </c>
       <c r="M98" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N98" s="7">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="O98" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P98" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q98" s="7">
         <v>0</v>
@@ -10040,10 +10048,10 @@
     </row>
     <row r="99" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>189</v>
@@ -10055,19 +10063,19 @@
         <v>186</v>
       </c>
       <c r="F99" s="13">
-        <v>0</v>
+        <v>13488</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="18">
+        <v>545</v>
+      </c>
+      <c r="H99" s="17">
         <v>0</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
@@ -10129,52 +10137,52 @@
     </row>
     <row r="100" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="14">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="18">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
-        <v>750</v>
+        <v>186</v>
+      </c>
+      <c r="F100" s="13">
+        <v>13488</v>
+      </c>
+      <c r="G100" s="1">
+        <v>545</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>555</v>
+      </c>
+      <c r="J100" s="1">
+        <v>545</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>100</v>
       </c>
       <c r="N100" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O100" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P100" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="7">
         <v>0</v>
@@ -10216,12 +10224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>189</v>
@@ -10230,22 +10238,22 @@
         <v>180</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F101" s="13">
-        <v>0</v>
+        <v>7331</v>
       </c>
       <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="18">
+        <v>590</v>
+      </c>
+      <c r="H101" s="17">
         <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -10253,17 +10261,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="8">
-        <v>100</v>
-      </c>
-      <c r="N101" s="8">
-        <v>50</v>
+      <c r="M101" s="7">
+        <v>120</v>
+      </c>
+      <c r="N101" s="7">
+        <v>84</v>
       </c>
       <c r="O101" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P101" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="7">
         <v>0</v>
@@ -10306,55 +10314,55 @@
       </c>
     </row>
     <row r="102" spans="1:29" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <v>21017</v>
+      <c r="A102" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F102" s="14">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="18">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1">
-        <v>0</v>
-      </c>
-      <c r="L102" s="1">
-        <v>0</v>
-      </c>
-      <c r="M102" s="8">
-        <v>725</v>
+        <v>186</v>
+      </c>
+      <c r="F102" s="13">
+        <v>5162</v>
+      </c>
+      <c r="G102" s="1">
+        <v>604</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>617</v>
+      </c>
+      <c r="J102" s="1">
+        <v>603</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>120</v>
       </c>
       <c r="N102" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O102" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P102" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q102" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="7">
         <v>0</v>
       </c>
       <c r="R102" s="7">
@@ -11577,7 +11585,11 @@
       <c r="F496" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC102" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC102">
+      <sortCondition ref="A1:A102"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC496">
     <sortCondition ref="F2:F496"/>
   </sortState>
@@ -11585,7 +11597,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A497:A1048576 A29:A31 A1:A17 A19:A27" numberStoredAsText="1"/>
+    <ignoredError sqref="A497:A1048576 A1" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
